--- a/datos porque ew.xlsx
+++ b/datos porque ew.xlsx
@@ -5,18 +5,38 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thaistamaio/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesusjimenez/git/Proyecto1BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D99E7277-D5E9-814B-B579-39A4F2FEE2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448BC716-E01C-8043-962C-B8B2E5C01EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15860" xr2:uid="{617592A2-1816-F244-8F33-F574DAC5188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{617592A2-1816-F244-8F33-F574DAC5188D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.10" hidden="1">'Sheet1 (2)'!$I$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Sheet1 (2)'!$I$5:$I$7,'Sheet1 (2)'!$I$10:$I$13,'Sheet1 (2)'!$I$16:$I$19</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Sheet1 (2)'!$J$4</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Sheet1 (2)'!$J$5:$J$7,'Sheet1 (2)'!$J$10:$J$13,'Sheet1 (2)'!$J$16:$J$19</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Sheet1 (2)'!$K$4</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Sheet1 (2)'!$K$5:$K$7,'Sheet1 (2)'!$K$10:$K$13,'Sheet1 (2)'!$K$16:$K$19</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Sheet1 (2)'!$L$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Sheet1 (2)'!$L$5:$L$7,'Sheet1 (2)'!$L$10:$L$13,'Sheet1 (2)'!$L$16:$L$19</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Sheet1 (2)'!$H$5:$H$7,'Sheet1 (2)'!$H$10:$H$13,'Sheet1 (2)'!$H$16:$H$19</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Sheet1 (2)'!$H$5:$H$7,'Sheet1 (2)'!$H$10:$H$13,'Sheet1 (2)'!$H$16:$H$19</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Sheet1 (2)'!$I$4</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Sheet1 (2)'!$I$5:$I$7,'Sheet1 (2)'!$I$10:$I$13,'Sheet1 (2)'!$I$16:$I$19</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Sheet1 (2)'!$J$4</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Sheet1 (2)'!$J$5:$J$7,'Sheet1 (2)'!$J$10:$J$13,'Sheet1 (2)'!$J$16:$J$19</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'Sheet1 (2)'!$K$4</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">'Sheet1 (2)'!$K$5:$K$7,'Sheet1 (2)'!$K$10:$K$13,'Sheet1 (2)'!$K$16:$K$19</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">'Sheet1 (2)'!$L$4</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">'Sheet1 (2)'!$L$5:$L$7,'Sheet1 (2)'!$L$10:$L$13,'Sheet1 (2)'!$L$16:$L$19</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="15">
   <si>
     <t>BoW</t>
   </si>
@@ -77,13 +97,19 @@
   <si>
     <t>Promedio</t>
   </si>
+  <si>
+    <t>GradientBoostingClassifier</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -137,20 +163,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -169,8 +195,1130 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>F1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> de validación cruzada por algoritmo y técnica</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BoW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$N$5:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Árboles</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GradientBoostingClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$O$5:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-442B-8246-8545-F656032FDD9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TF-IDF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$N$5:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Árboles</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GradientBoostingClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$P$5:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-442B-8246-8545-F656032FDD9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hashing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$N$5:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Árboles</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GradientBoostingClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$Q$5:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-442B-8246-8545-F656032FDD9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$N$5:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Árboles</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GradientBoostingClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$R$5:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81066666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-442B-8246-8545-F656032FDD9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1157871871"/>
+        <c:axId val="1276975487"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1157871871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276975487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1276975487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1157871871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297626</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>145613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>749397</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38584</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CF9A2C-C08D-03B2-507F-95D1068E6CD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,48 +1616,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF38826-D6A2-0644-A755-C5912D1D8398}">
   <dimension ref="B1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="131" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="O3" s="1" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
@@ -553,48 +1701,48 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <f>AVERAGE(C5:E5)</f>
         <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0.83099999999999996</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0.85299999999999998</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>0.83399999999999996</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f>AVERAGE(I5:K5)</f>
         <v>0.83933333333333326</v>
       </c>
       <c r="N5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="2">
+        <v>14</v>
+      </c>
+      <c r="O5" s="1">
         <v>0.81299999999999994</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>0.80500000000000005</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>0.81399999999999995</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <f>AVERAGE(O5:Q5)</f>
         <v>0.81066666666666665</v>
       </c>
@@ -603,48 +1751,48 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" ref="F6:F19" si="0">AVERAGE(C6:E6)</f>
         <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.69499999999999995</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0.66600000000000004</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>0.71799999999999997</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <f t="shared" ref="L6:L19" si="1">AVERAGE(I6:K6)</f>
         <v>0.69299999999999995</v>
       </c>
       <c r="N6" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>0.67</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>0.66700000000000004</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>0.67300000000000004</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <f t="shared" ref="R6:R7" si="2">AVERAGE(O6:Q6)</f>
         <v>0.67</v>
       </c>
@@ -653,63 +1801,63 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.81799999999999995</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.83899999999999997</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.83399999999999996</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0.83033333333333337</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0.76700000000000002</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>0.76300000000000001</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>0.76600000000000001</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <f t="shared" si="1"/>
         <v>0.76533333333333342</v>
       </c>
       <c r="N7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2">
+        <v>13</v>
+      </c>
+      <c r="O7" s="1">
         <v>0.77100000000000002</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>0.77600000000000002</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>0.77500000000000002</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <f t="shared" si="2"/>
         <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
@@ -741,32 +1889,32 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>0.83799999999999997</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>0.8</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>0.81699999999999995</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <f t="shared" si="1"/>
         <v>0.81833333333333336</v>
       </c>
@@ -775,32 +1923,32 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>0.68300000000000005</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>0.65600000000000003</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>0.70599999999999996</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <f t="shared" si="1"/>
         <v>0.68166666666666664</v>
       </c>
@@ -809,47 +1957,47 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.92100000000000004</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>0.93366666666666676</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>0.85599999999999998</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>0.85399999999999998</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>0.86</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f t="shared" si="1"/>
         <v>0.85666666666666658</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="I15" s="1" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="I15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
@@ -881,32 +2029,32 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>0.83399999999999996</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>0.82599999999999996</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <f t="shared" si="1"/>
         <v>0.82833333333333325</v>
       </c>
@@ -915,32 +2063,32 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>0.68899999999999995</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>0.71199999999999997</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <f t="shared" si="1"/>
         <v>0.68733333333333346</v>
       </c>
@@ -949,50 +2097,51 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>0.86699999999999999</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0.88200000000000001</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>0.879</v>
       </c>
       <c r="H19" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>0.80900000000000005</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>0.80600000000000005</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>0.81100000000000005</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <f t="shared" si="1"/>
         <v>0.80866666666666676</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1007,41 +2156,41 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="O3" s="1" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
@@ -1187,16 +2336,16 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
@@ -1297,16 +2446,16 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="I15" s="1" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="I15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
